--- a/Lab4/Чек-лист.xlsx
+++ b/Lab4/Чек-лист.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aliaksandr_Yachnik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Desktop\bsu-testing-course-6sem\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACA593E-F69C-4AAE-AF61-08F49DA7A8A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Легенда" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="173">
   <si>
     <t>N/A</t>
   </si>
@@ -140,9 +139,6 @@
     <t>1.1.1.4</t>
   </si>
   <si>
-    <t>1.1.2</t>
-  </si>
-  <si>
     <t>1.1.2.1</t>
   </si>
   <si>
@@ -236,9 +232,6 @@
     <t>Появление диалогового окна при нажатии кнопки "Удалить"</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Система Создание/редактирование задачи + Список задач</t>
   </si>
   <si>
@@ -288,12 +281,276 @@
   </si>
   <si>
     <t>Создание новой записи о задаче с недопустимыми значениями в полях</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Автоматическая генерация Идентификатора</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Недоступность для редактирования Идентификатора</t>
+  </si>
+  <si>
+    <t>1.1.4.1</t>
+  </si>
+  <si>
+    <t>Поле проект выбирается из списка существующих проектов</t>
+  </si>
+  <si>
+    <t>1.1.4.2</t>
+  </si>
+  <si>
+    <t>Возможность создания задачи без выбора проекта</t>
+  </si>
+  <si>
+    <t>1.1.4.3</t>
+  </si>
+  <si>
+    <t>Если открыта задача из списка проектов, то поле проект недоступен для редактирования</t>
+  </si>
+  <si>
+    <t>1.1.5.1</t>
+  </si>
+  <si>
+    <t>Поле "Название" проверка на кириллицу</t>
+  </si>
+  <si>
+    <t>Поле "Название" проверка на Латиницу</t>
+  </si>
+  <si>
+    <t>Поле "Название" проверка на цифры</t>
+  </si>
+  <si>
+    <t>Поле "Название" проверка на допустимые спецсимволы</t>
+  </si>
+  <si>
+    <t>Поле "Название" проверка на недопустимые спецсимволы</t>
+  </si>
+  <si>
+    <t>Поле "Название" проверка на Регистр</t>
+  </si>
+  <si>
+    <t>Поле "Название" проверка на максимальную длину в 32 символа</t>
+  </si>
+  <si>
+    <t>Поле "Название" проверка на строку " "(пустая строка, пробел)</t>
+  </si>
+  <si>
+    <t>Поле "Название" проверка на минимальную длину в 1 символ</t>
+  </si>
+  <si>
+    <t>1.1.6.1</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>Поле "Дата начала"</t>
+  </si>
+  <si>
+    <t>Ввод даты в виде дд-мм-гггг</t>
+  </si>
+  <si>
+    <t>Минимальная дата для ввода 01-01-1900</t>
+  </si>
+  <si>
+    <t>Максимальная дата для ввода 31-12-2099</t>
+  </si>
+  <si>
+    <t>Дата начала не должна быть больше, чем дата окончания</t>
+  </si>
+  <si>
+    <t>Превышение максимальноВозможной вводимой даты</t>
+  </si>
+  <si>
+    <t>Принижение минимальноВозможной вводимой даты</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>Поле "Дата окончания"</t>
+  </si>
+  <si>
+    <t>Дата начала не должна быть меньше, чем дата окончания</t>
+  </si>
+  <si>
+    <t>1.1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле Работа </t>
+  </si>
+  <si>
+    <t>Ввод целых чисел</t>
+  </si>
+  <si>
+    <t>максимальная цифра 9</t>
+  </si>
+  <si>
+    <t>Положительные числа</t>
+  </si>
+  <si>
+    <t>Отриательные числа</t>
+  </si>
+  <si>
+    <t>Пустое значение</t>
+  </si>
+  <si>
+    <t>Попытка ввода числа больше, чем int</t>
+  </si>
+  <si>
+    <t>минимальная цифра 0</t>
+  </si>
+  <si>
+    <t>Минимальное кол-во вводимых цифр 1</t>
+  </si>
+  <si>
+    <t>Максимальное кол-во водимых цифр 10</t>
+  </si>
+  <si>
+    <t>1.1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле Статус </t>
+  </si>
+  <si>
+    <t>Выбирается из списка (Не начата|В процессе|Завершена|Отложена)</t>
+  </si>
+  <si>
+    <t>Поле недоступно для редактирования</t>
+  </si>
+  <si>
+    <t>1.1.10</t>
+  </si>
+  <si>
+    <t>Кнопка "Сохранить"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При валидных данных задача сохраняется </t>
+  </si>
+  <si>
+    <t xml:space="preserve">При невалидных данных появляется уведомление об ошибке </t>
+  </si>
+  <si>
+    <t>1.1.11</t>
+  </si>
+  <si>
+    <t>Кнопка "Отменить"</t>
+  </si>
+  <si>
+    <t>Переход к последней форме, которая была до формы задач</t>
+  </si>
+  <si>
+    <t>При наведение на кнопку бордеры становятся красными</t>
+  </si>
+  <si>
+    <t>1.1.11.1</t>
+  </si>
+  <si>
+    <t>1.1.11.2</t>
+  </si>
+  <si>
+    <t>1.1.10.1</t>
+  </si>
+  <si>
+    <t>1.1.10.2</t>
+  </si>
+  <si>
+    <t>1.1.9.1</t>
+  </si>
+  <si>
+    <t>1.1.9.2</t>
+  </si>
+  <si>
+    <t>1.1.8.1</t>
+  </si>
+  <si>
+    <t>1.1.8.2</t>
+  </si>
+  <si>
+    <t>1.1.8.3</t>
+  </si>
+  <si>
+    <t>1.1.8.4</t>
+  </si>
+  <si>
+    <t>1.1.8.5</t>
+  </si>
+  <si>
+    <t>1.1.8.6</t>
+  </si>
+  <si>
+    <t>1.1.8.7</t>
+  </si>
+  <si>
+    <t>1.1.8.8</t>
+  </si>
+  <si>
+    <t>1.1.8.9</t>
+  </si>
+  <si>
+    <t>1.1.7.1</t>
+  </si>
+  <si>
+    <t>1.1.7.2</t>
+  </si>
+  <si>
+    <t>1.1.7.3</t>
+  </si>
+  <si>
+    <t>1.1.7.4</t>
+  </si>
+  <si>
+    <t>1.1.7.5</t>
+  </si>
+  <si>
+    <t>1.1.7.6</t>
+  </si>
+  <si>
+    <t>1.1.6.2</t>
+  </si>
+  <si>
+    <t>1.1.6.3</t>
+  </si>
+  <si>
+    <t>1.1.6.4</t>
+  </si>
+  <si>
+    <t>1.1.6.5</t>
+  </si>
+  <si>
+    <t>1.1.6.6</t>
+  </si>
+  <si>
+    <t>1.1.5.2</t>
+  </si>
+  <si>
+    <t>1.1.5.3</t>
+  </si>
+  <si>
+    <t>1.1.5.4</t>
+  </si>
+  <si>
+    <t>1.1.5.5</t>
+  </si>
+  <si>
+    <t>1.1.5.6</t>
+  </si>
+  <si>
+    <t>1.1.5.7</t>
+  </si>
+  <si>
+    <t>1.1.5.8</t>
+  </si>
+  <si>
+    <t>1.1.5.9</t>
+  </si>
+  <si>
+    <t>1.1.3.9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -706,7 +963,7 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -811,16 +1068,10 @@
     <xf numFmtId="49" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -845,8 +1096,41 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -855,39 +1139,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -901,20 +1158,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -960,9 +1223,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1000,7 +1263,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1035,23 +1298,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1087,26 +1333,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1279,7 +1508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1302,20 +1531,20 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1324,107 +1553,107 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -1441,26 +1670,21 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="43">
         <v>43616</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="45" t="s">
         <v>62</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1469,23 +1693,28 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1497,8 +1726,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>70</v>
+      <c r="A1" s="46" t="s">
+        <v>68</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="69" t="s">
@@ -1529,11 +1758,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -1543,310 +1772,1049 @@
         <v>32</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="43"/>
+        <v>69</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="41"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="43"/>
+        <v>64</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="43"/>
+        <v>65</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="43"/>
+        <v>66</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="43"/>
+        <v>67</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="43"/>
+        <v>71</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="41"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="43"/>
+        <v>33</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="41"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="43"/>
+      <c r="A12" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="41"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="43"/>
+        <v>37</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="41"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="43"/>
+        <v>80</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="43"/>
+        <v>81</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="41"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="43"/>
+        <v>82</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="41"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="43"/>
+        <v>83</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="41"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="43"/>
+        <v>43</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="41"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="43"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="C20" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="41"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="43"/>
-    </row>
-    <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="43"/>
+      <c r="B22" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="41"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="41"/>
+    </row>
+    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="41"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="43"/>
-    </row>
-    <row r="24" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="C25" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="41"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="43"/>
-    </row>
-    <row r="25" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="43"/>
-    </row>
-    <row r="26" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="43"/>
+      <c r="C26" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="41"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="41"/>
+    </row>
+    <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="41"/>
+    </row>
+    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="43"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="43"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="43"/>
+      <c r="B29" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="41"/>
     </row>
     <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-    </row>
-    <row r="31" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="B34"/>
+      <c r="A30" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="41"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="37"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="76"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="76"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="76"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="76"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="76"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="76"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="76"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="76"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="76"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="76"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="76"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="76"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="76"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="76"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="76"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="76"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="76"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="76"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="76"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="76"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="76"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="76"/>
+    </row>
+    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="76"/>
+    </row>
+    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="76"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="76"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="76"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="76"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="76"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="76"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="76"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="76"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="76"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="76"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="76"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="76"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="76"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="76"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="76"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="76"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="76"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="76"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="76"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="76"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="76"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="75"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="75"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="76"/>
+      <c r="D77" s="76"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="75"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="76"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="75"/>
+      <c r="B79" s="77"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="76"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="75"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="76"/>
+      <c r="D80" s="76"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="75"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="76"/>
+      <c r="D81" s="76"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="75"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="76"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="75"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="76"/>
+      <c r="D83" s="76"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="75"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="75"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="75"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="75"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="75"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="76"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="75"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="76"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="75"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="75"/>
+      <c r="B91" s="77"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="76"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="75"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="76"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="75"/>
+      <c r="B93" s="77"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="76"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="75"/>
+      <c r="B94" s="77"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="76"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="75"/>
+      <c r="B95" s="77"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="75"/>
+      <c r="B96" s="77"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="76"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="75"/>
+      <c r="B97" s="77"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="76"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="75"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="76"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="75"/>
+      <c r="B99" s="77"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="75"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="75"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="75"/>
+      <c r="B102" s="77"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="75"/>
+      <c r="B103" s="77"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="75"/>
+      <c r="B104" s="77"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="75"/>
+      <c r="B105" s="77"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="75"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{5D865CC9-63F1-4EC9-8991-ED4DBB06D2BB}"/>
+    <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="C64" r:id="rId2"/>
+    <hyperlink ref="C63" r:id="rId3"/>
+    <hyperlink ref="C41" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>